--- a/predict_and_ground_truth_matching.xlsx
+++ b/predict_and_ground_truth_matching.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\2021_AlphaFold\git_uploading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\2021_AlphaFold\ACR_alphafold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFD074-F2C4-480F-A8FC-897255C750C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EAEC70-60B4-4597-AFCB-071E7193EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2220" windowWidth="26340" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19740" yWindow="3150" windowWidth="13560" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Set A and C" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="814">
   <si>
     <t>anti_CRISPR_id</t>
   </si>
@@ -2038,6 +2038,454 @@
   <si>
     <t>Set A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7jzw-J</t>
+  </si>
+  <si>
+    <t>5b7i-C</t>
+  </si>
+  <si>
+    <t>3bzc-A</t>
+  </si>
+  <si>
+    <t>5o9j-A</t>
+  </si>
+  <si>
+    <t>6vqx-A</t>
+  </si>
+  <si>
+    <t>7jzx-J</t>
+  </si>
+  <si>
+    <t>6yes-A</t>
+  </si>
+  <si>
+    <t>6n8z-E</t>
+  </si>
+  <si>
+    <t>5aj3-b</t>
+  </si>
+  <si>
+    <t>4fbr-A</t>
+  </si>
+  <si>
+    <t>1zp9-C</t>
+  </si>
+  <si>
+    <t>6qv0-C</t>
+  </si>
+  <si>
+    <t>1cw0-A</t>
+  </si>
+  <si>
+    <t>6exp-D</t>
+  </si>
+  <si>
+    <t>6h4c-H</t>
+  </si>
+  <si>
+    <t>3onl-C</t>
+  </si>
+  <si>
+    <t>5dn6-H</t>
+  </si>
+  <si>
+    <t>6kyf-A</t>
+  </si>
+  <si>
+    <t>3t49-B</t>
+  </si>
+  <si>
+    <t>3ibj-B</t>
+  </si>
+  <si>
+    <t>7jzz-K</t>
+  </si>
+  <si>
+    <t>4ggt-B</t>
+  </si>
+  <si>
+    <t>7ci2-A</t>
+  </si>
+  <si>
+    <t>1u3e-M</t>
+  </si>
+  <si>
+    <t>4brr-C</t>
+  </si>
+  <si>
+    <t>3rpx-B</t>
+  </si>
+  <si>
+    <t>6iuf-B</t>
+  </si>
+  <si>
+    <t>6j6h-g</t>
+  </si>
+  <si>
+    <t>6te9-E</t>
+  </si>
+  <si>
+    <t>4cht-B</t>
+  </si>
+  <si>
+    <t>4icg-D</t>
+  </si>
+  <si>
+    <t>6eyx-A</t>
+  </si>
+  <si>
+    <t>4h63-Q</t>
+  </si>
+  <si>
+    <t>5oqm-d</t>
+  </si>
+  <si>
+    <t>7pdz-F</t>
+  </si>
+  <si>
+    <t>3nct-B</t>
+  </si>
+  <si>
+    <t>6q0w-C</t>
+  </si>
+  <si>
+    <t>7a0r-M</t>
+  </si>
+  <si>
+    <t>7n1n-A</t>
+  </si>
+  <si>
+    <t>5ld9-A</t>
+  </si>
+  <si>
+    <t>5jm7-A</t>
+  </si>
+  <si>
+    <t>3vyg-H</t>
+  </si>
+  <si>
+    <t>6hzg-A</t>
+  </si>
+  <si>
+    <t>6blm-B</t>
+  </si>
+  <si>
+    <t>1rio-A</t>
+  </si>
+  <si>
+    <t>4akg-A</t>
+  </si>
+  <si>
+    <t>6vc7-F</t>
+  </si>
+  <si>
+    <t>6cqi-A</t>
+  </si>
+  <si>
+    <t>7mfl-A</t>
+  </si>
+  <si>
+    <t>5mm0-A</t>
+  </si>
+  <si>
+    <t>1x6o-A</t>
+  </si>
+  <si>
+    <t>6b46-J</t>
+  </si>
+  <si>
+    <t>4rqi-B</t>
+  </si>
+  <si>
+    <t>7c0h-A</t>
+  </si>
+  <si>
+    <t>1ywl-A</t>
+  </si>
+  <si>
+    <t>7bjd-A</t>
+  </si>
+  <si>
+    <t>6q0t-X</t>
+  </si>
+  <si>
+    <t>5m3l-N</t>
+  </si>
+  <si>
+    <t>4i6u-D</t>
+  </si>
+  <si>
+    <t>6y8q-D</t>
+  </si>
+  <si>
+    <t>5xgp-A</t>
+  </si>
+  <si>
+    <t>7ak8-B</t>
+  </si>
+  <si>
+    <t>5yww-A</t>
+  </si>
+  <si>
+    <t>4iap-A</t>
+  </si>
+  <si>
+    <t>6qss-D</t>
+  </si>
+  <si>
+    <t>4awh-C</t>
+  </si>
+  <si>
+    <t>6c9i-G</t>
+  </si>
+  <si>
+    <t>6c9i-X</t>
+  </si>
+  <si>
+    <t>1mw8-X</t>
+  </si>
+  <si>
+    <t>4fwo-A</t>
+  </si>
+  <si>
+    <t>3w21-B</t>
+  </si>
+  <si>
+    <t>4je9-A</t>
+  </si>
+  <si>
+    <t>2w6h-H</t>
+  </si>
+  <si>
+    <t>7jta-A</t>
+  </si>
+  <si>
+    <t>7jzw-J.pdb</t>
+  </si>
+  <si>
+    <t>5b7i-C.pdb</t>
+  </si>
+  <si>
+    <t>3bzc-A.pdb</t>
+  </si>
+  <si>
+    <t>5o9j-A.pdb</t>
+  </si>
+  <si>
+    <t>6vqx-A.pdb</t>
+  </si>
+  <si>
+    <t>7jzx-J.pdb</t>
+  </si>
+  <si>
+    <t>6yes-A.pdb</t>
+  </si>
+  <si>
+    <t>6n8z-E.pdb</t>
+  </si>
+  <si>
+    <t>5aj3-b.pdb</t>
+  </si>
+  <si>
+    <t>4fbr-A.pdb</t>
+  </si>
+  <si>
+    <t>1zp9-C.pdb</t>
+  </si>
+  <si>
+    <t>6qv0-C.pdb</t>
+  </si>
+  <si>
+    <t>1cw0-A.pdb</t>
+  </si>
+  <si>
+    <t>6exp-D.pdb</t>
+  </si>
+  <si>
+    <t>6h4c-H.pdb</t>
+  </si>
+  <si>
+    <t>3onl-C.pdb</t>
+  </si>
+  <si>
+    <t>5dn6-H.pdb</t>
+  </si>
+  <si>
+    <t>6kyf-A.pdb</t>
+  </si>
+  <si>
+    <t>3t49-B.pdb</t>
+  </si>
+  <si>
+    <t>3ibj-B.pdb</t>
+  </si>
+  <si>
+    <t>7jzz-K.pdb</t>
+  </si>
+  <si>
+    <t>4ggt-B.pdb</t>
+  </si>
+  <si>
+    <t>7ci2-A.pdb</t>
+  </si>
+  <si>
+    <t>1u3e-M.pdb</t>
+  </si>
+  <si>
+    <t>4brr-C.pdb</t>
+  </si>
+  <si>
+    <t>3rpx-B.pdb</t>
+  </si>
+  <si>
+    <t>6iuf-B.pdb</t>
+  </si>
+  <si>
+    <t>6j6h-g.pdb</t>
+  </si>
+  <si>
+    <t>6te9-E.pdb</t>
+  </si>
+  <si>
+    <t>4cht-B.pdb</t>
+  </si>
+  <si>
+    <t>4icg-D.pdb</t>
+  </si>
+  <si>
+    <t>6eyx-A.pdb</t>
+  </si>
+  <si>
+    <t>4h63-Q.pdb</t>
+  </si>
+  <si>
+    <t>5oqm-d.pdb</t>
+  </si>
+  <si>
+    <t>7pdz-F.pdb</t>
+  </si>
+  <si>
+    <t>3nct-B.pdb</t>
+  </si>
+  <si>
+    <t>6q0w-C.pdb</t>
+  </si>
+  <si>
+    <t>7a0r-M.pdb</t>
+  </si>
+  <si>
+    <t>7n1n-A.pdb</t>
+  </si>
+  <si>
+    <t>5ld9-A.pdb</t>
+  </si>
+  <si>
+    <t>5jm7-A.pdb</t>
+  </si>
+  <si>
+    <t>3vyg-H.pdb</t>
+  </si>
+  <si>
+    <t>6hzg-A.pdb</t>
+  </si>
+  <si>
+    <t>6blm-B.pdb</t>
+  </si>
+  <si>
+    <t>1rio-A.pdb</t>
+  </si>
+  <si>
+    <t>4akg-A.pdb</t>
+  </si>
+  <si>
+    <t>6vc7-F.pdb</t>
+  </si>
+  <si>
+    <t>6cqi-A.pdb</t>
+  </si>
+  <si>
+    <t>7mfl-A.pdb</t>
+  </si>
+  <si>
+    <t>5mm0-A.pdb</t>
+  </si>
+  <si>
+    <t>1x6o-A.pdb</t>
+  </si>
+  <si>
+    <t>6b46-J.pdb</t>
+  </si>
+  <si>
+    <t>4rqi-B.pdb</t>
+  </si>
+  <si>
+    <t>7c0h-A.pdb</t>
+  </si>
+  <si>
+    <t>1ywl-A.pdb</t>
+  </si>
+  <si>
+    <t>7bjd-A.pdb</t>
+  </si>
+  <si>
+    <t>6q0t-X.pdb</t>
+  </si>
+  <si>
+    <t>5m3l-N.pdb</t>
+  </si>
+  <si>
+    <t>4i6u-D.pdb</t>
+  </si>
+  <si>
+    <t>6y8q-D.pdb</t>
+  </si>
+  <si>
+    <t>5xgp-A.pdb</t>
+  </si>
+  <si>
+    <t>7ak8-B.pdb</t>
+  </si>
+  <si>
+    <t>5yww-A.pdb</t>
+  </si>
+  <si>
+    <t>4iap-A.pdb</t>
+  </si>
+  <si>
+    <t>6qss-D.pdb</t>
+  </si>
+  <si>
+    <t>4awh-C.pdb</t>
+  </si>
+  <si>
+    <t>6c9i-G.pdb</t>
+  </si>
+  <si>
+    <t>6c9i-X.pdb</t>
+  </si>
+  <si>
+    <t>1mw8-X.pdb</t>
+  </si>
+  <si>
+    <t>4fwo-A.pdb</t>
+  </si>
+  <si>
+    <t>3w21-B.pdb</t>
+  </si>
+  <si>
+    <t>4je9-A.pdb</t>
+  </si>
+  <si>
+    <t>2w6h-H.pdb</t>
+  </si>
+  <si>
+    <t>7jta-A.pdb</t>
   </si>
 </sst>
 </file>
@@ -2384,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="D432" sqref="D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9316,6 +9764,1886 @@
       </c>
       <c r="F346" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F347" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F348" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F349" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F350" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F351" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F352" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F353" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F354" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F355" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F356" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F357" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F358" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F359" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F360" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F361" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F362" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F363" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F364" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F365" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F366" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F367" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F368" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F369" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F370" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F371" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F372" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F373" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F374" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F375" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F376" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F377" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F378" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F379" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F380" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F381" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F382" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F383" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F384" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F385" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F386" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F387" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F388" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F389" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F390" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F391" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F392" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F393" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F394" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F395" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F396" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F397" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F398" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F399" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F400" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F401" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F402" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F403" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F404" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F405" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F406" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F407" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F408" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F409" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F410" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F411" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F412" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F413" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F414" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F415" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F416" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F417" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F418" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F419" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F420" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F421" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F422" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F423" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F424" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F425" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F426" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F427" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F428" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F429" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F430" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F431" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F432" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F433" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F434" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F435" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F436" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F437" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F438" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F439" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F440" t="s">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
